--- a/dados/umses_alunos_2018.xlsx
+++ b/dados/umses_alunos_2018.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fb95d6a7f4534cf5/Projetos 2018/Ciencia de Dados/Introducao a Ciencia de Dados/Trabalhos 2018/Questionario/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vitor/Documents/UNESP/BCC/6 SEM/Ciencia de dados/Trab final/Grupo-3/dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4A67720-6036-4B94-87F7-0E048FFD3453}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED58F6E-6B5A-604E-846B-CC491AD9AF00}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5580" xr2:uid="{D5DFAED4-3D0B-4958-B9A2-2717804177B8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10000" windowHeight="18000" xr2:uid="{D5DFAED4-3D0B-4958-B9A2-2717804177B8}"/>
   </bookViews>
   <sheets>
     <sheet name="dados" sheetId="1" r:id="rId1"/>
@@ -253,7 +253,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -552,12 +552,38 @@
   <dimension ref="A1:AR69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="17" max="17" width="40.1640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="38" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="9" customWidth="1"/>
+    <col min="41" max="41" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -691,7 +717,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>3</v>
       </c>
@@ -792,7 +818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
@@ -884,7 +910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -979,7 +1005,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1083,7 +1109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1187,7 +1213,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2</v>
       </c>
@@ -1273,7 +1299,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2</v>
       </c>
@@ -1371,7 +1397,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>3</v>
       </c>
@@ -1475,7 +1501,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2</v>
       </c>
@@ -1564,7 +1590,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1659,7 +1685,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
@@ -1757,7 +1783,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1840,7 +1866,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2</v>
       </c>
@@ -1935,7 +1961,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2</v>
       </c>
@@ -2012,7 +2038,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3</v>
       </c>
@@ -2101,7 +2127,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3</v>
       </c>
@@ -2190,7 +2216,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2</v>
       </c>
@@ -2288,7 +2314,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2</v>
       </c>
@@ -2392,7 +2418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2</v>
       </c>
@@ -2478,7 +2504,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2</v>
       </c>
@@ -2564,7 +2590,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2</v>
       </c>
@@ -2650,7 +2676,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2</v>
       </c>
@@ -2727,7 +2753,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2</v>
       </c>
@@ -2822,7 +2848,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2</v>
       </c>
@@ -2929,7 +2955,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2</v>
       </c>
@@ -3003,7 +3029,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2</v>
       </c>
@@ -3113,7 +3139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>3</v>
       </c>
@@ -3193,7 +3219,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2</v>
       </c>
@@ -3294,7 +3320,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>3</v>
       </c>
@@ -3392,7 +3418,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2</v>
       </c>
@@ -3472,7 +3498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>3</v>
       </c>
@@ -3576,7 +3602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>3</v>
       </c>
@@ -3662,7 +3688,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2</v>
       </c>
@@ -3748,7 +3774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>3</v>
       </c>
@@ -3837,7 +3863,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2</v>
       </c>
@@ -3932,7 +3958,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>3</v>
       </c>
@@ -4018,7 +4044,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>3</v>
       </c>
@@ -4110,7 +4136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>3</v>
       </c>
@@ -4211,7 +4237,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2</v>
       </c>
@@ -4309,7 +4335,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>2</v>
       </c>
@@ -4407,7 +4433,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>2</v>
       </c>
@@ -4508,7 +4534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>3</v>
       </c>
@@ -4609,7 +4635,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>3</v>
       </c>
@@ -4713,7 +4739,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>3</v>
       </c>
@@ -4802,7 +4828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>2</v>
       </c>
@@ -4903,7 +4929,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>3</v>
       </c>
@@ -4992,7 +5018,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>3</v>
       </c>
@@ -5081,7 +5107,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>3</v>
       </c>
@@ -5176,7 +5202,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>2</v>
       </c>
@@ -5265,7 +5291,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>3</v>
       </c>
@@ -5348,7 +5374,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>2</v>
       </c>
@@ -5434,7 +5460,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>2</v>
       </c>
@@ -5502,7 +5528,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>2</v>
       </c>
@@ -5582,7 +5608,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>2</v>
       </c>
@@ -5686,7 +5712,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>2</v>
       </c>
@@ -5766,7 +5792,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>2</v>
       </c>
@@ -5843,7 +5869,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>2</v>
       </c>
@@ -5923,7 +5949,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>2</v>
       </c>
@@ -6009,7 +6035,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>3</v>
       </c>
@@ -6116,7 +6142,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>3</v>
       </c>
@@ -6208,7 +6234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>2</v>
       </c>
@@ -6297,7 +6323,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>2</v>
       </c>
@@ -6374,7 +6400,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>3</v>
       </c>
@@ -6466,7 +6492,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>2</v>
       </c>
@@ -6564,7 +6590,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>2</v>
       </c>
@@ -6644,7 +6670,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>2</v>
       </c>
@@ -6754,7 +6780,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>3</v>
       </c>
@@ -6858,7 +6884,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>3</v>
       </c>
